--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1090,7 +1090,7 @@
     <t>Configurations of the external repository. The repository shall store target's observedSeq or records related with target's observedSeq.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:repository.type}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
     <col min="24" max="24" width="76.5390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.85546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.1015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="30.39453125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-annotation-reference.xlsx
+++ b/output/StructureDefinition-annotation-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
